--- a/Bin/tools/Excel2Lua/sheet_publish-tool/language.xlsx
+++ b/Bin/tools/Excel2Lua/sheet_publish-tool/language.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Lang" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,15 +19,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -35,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,396 +52,466 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>配置规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>s.字符串</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>i.整数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>f.浮点数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>_.注释</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>聊天表情表</t>
+  </si>
+  <si>
+    <t>#begin</t>
+  </si>
+  <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>sid</t>
   </si>
   <si>
     <t>_</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天表情表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#begin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scn</t>
   </si>
   <si>
     <t>sen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UD_DUPLICATE_KEY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{1}" 中有重复key"{0}"</t>
+  </si>
+  <si>
+    <t>Duplicate key "{0}" in "{1}"</t>
   </si>
   <si>
     <t>UD_EMPTY_KEY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{0}"中的userdata有key为空的情况</t>
+  </si>
+  <si>
+    <t>Key in "{0}" is empty</t>
   </si>
   <si>
     <t>UD_FLOAT_KEY_WARN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{0}"中存在key为浮点数"{1}",将被强制转换为整形"{2}"</t>
+  </si>
+  <si>
+    <t>Key in "{0}" is floating-point number "{1}", which will be converted to "{2}"</t>
   </si>
   <si>
     <t>EXECUTE_COMMAND_FAILE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行命令失败:%q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Failed to execute command %q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PROJECT_PATH_EMPTY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工程路径为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Project path is empty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TRAVERSE_DIR_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>遍历目录%q失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Traverse directory %q failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_FILE_FAILED</t>
   </si>
   <si>
     <t>文件读取失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ_FILE_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>File read failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DETECTION_FILE_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件检测失败</t>
   </si>
   <si>
     <t>File detection failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件检测失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EXPORT_FILE_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文件导出失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>File export failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>COPY_FILE_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文件拷贝失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>File copy failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DIR_EMPTY_OR_ILLEGAL_PATH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录为空或路径非法</t>
   </si>
   <si>
     <t>Directory is empty or path is illegal</t>
   </si>
   <si>
-    <t>目录为空或路径非法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>PARS_FILE_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件%q解析失败</t>
   </si>
   <si>
     <t>File %q parsing failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件%q解析失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FILE_IS_EMPTY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文件%q内容为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>The file %q is empty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FIELD_MISS_FORM_FILE</t>
   </si>
   <si>
+    <t>文件"{1}"中缺少字段"{0}"</t>
+  </si>
+  <si>
+    <t>Field "{0}" is missing from file "{1}"</t>
+  </si>
+  <si>
     <t>PUBLISH_FILE_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件"{0}"发布失败</t>
+  </si>
+  <si>
+    <t>Failed to publish file "{0}"</t>
   </si>
   <si>
     <t>PUBLISH_FILE_SUCCESS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件"{0}"发布成功</t>
+  </si>
+  <si>
+    <t>Publish file "{0}" succeeded</t>
   </si>
   <si>
     <t>WRITE_FILE_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件"{0}"写入失败</t>
+  </si>
+  <si>
+    <t>Failed to write file "{0}"</t>
   </si>
   <si>
     <t>PUBLISH_FILE_FAILED_AND_WRITE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件"{0}"发布失败&lt;写入失败&gt;</t>
+  </si>
+  <si>
+    <t>Failed to publish file "{0}" &lt;write failed&gt;</t>
   </si>
   <si>
     <t>EXPORT_FILE_FAILED_UNKNOWN_TYPE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件"{0}"导出失败,不支持导出类型"{1}"</t>
+  </si>
+  <si>
+    <t>Export of file "{0}" failed, unknown type "{1}"</t>
   </si>
   <si>
     <t>PUB_PLUGIN_FAIL_NO_IMP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件"{0}"没有对应的发布逻辑实现</t>
+  </si>
+  <si>
+    <t>Publishing implementation for plug-in "{0}" not found</t>
+  </si>
+  <si>
+    <t>PUB_FILE_FAIL_NO_IMP</t>
+  </si>
+  <si>
+    <t>文件"{0}"中的类型"{1}"没有相应的发布逻辑实现</t>
+  </si>
+  <si>
+    <t>The type "{0}" in the file "{1}" does not have a corresponding publishing logic implementation</t>
   </si>
   <si>
     <t>COPY_FILE_FAILED_FMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件"{0}"拷贝失败</t>
+  </si>
+  <si>
+    <t>Failed to copy file "{0}"</t>
   </si>
   <si>
     <t>COPY_FILE_SUC_FMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件"{0}"拷贝成功</t>
+  </si>
+  <si>
+    <t>Copy file "{0}" succeeded</t>
   </si>
   <si>
     <t>PUBLISH_SUCCESS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布成功</t>
   </si>
   <si>
     <t>publish finished</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PUBLISH_FAILED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布失败</t>
   </si>
   <si>
     <t>publish failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duplicate key "{0}" in "{1}"</t>
-  </si>
-  <si>
-    <t>Key in "{0}" is empty</t>
-  </si>
-  <si>
-    <t>Key in "{0}" is floating-point number "{1}", which will be converted to "{2}"</t>
-  </si>
-  <si>
-    <t>文件"{1}"中缺少字段"{0}"</t>
-  </si>
-  <si>
-    <t>Field "{0}" is missing from file "{1}"</t>
-  </si>
-  <si>
-    <t>文件"{0}"发布失败</t>
-  </si>
-  <si>
-    <t>Failed to publish file "{0}"</t>
-  </si>
-  <si>
-    <t>文件"{0}"发布成功</t>
-  </si>
-  <si>
-    <t>Publish file "{0}" succeeded</t>
-  </si>
-  <si>
-    <t>文件"{0}"写入失败</t>
-  </si>
-  <si>
-    <t>Failed to write file "{0}"</t>
-  </si>
-  <si>
-    <t>文件"{0}"发布失败&lt;写入失败&gt;</t>
-  </si>
-  <si>
-    <t>Failed to publish file "{0}" &lt;write failed&gt;</t>
-  </si>
-  <si>
-    <t>文件"{0}"导出失败,不支持导出类型"{1}"</t>
-  </si>
-  <si>
-    <t>Export of file "{0}" failed, unknown type "{1}"</t>
-  </si>
-  <si>
-    <t>插件"{0}"没有对应的发布逻辑实现</t>
-  </si>
-  <si>
-    <t>Publishing implementation for plug-in "{0}" not found</t>
-  </si>
-  <si>
-    <t>文件"{0}"拷贝失败</t>
-  </si>
-  <si>
-    <t>Failed to copy file "{0}"</t>
-  </si>
-  <si>
-    <t>文件"{0}"拷贝成功</t>
-  </si>
-  <si>
-    <t>Copy file "{0}" succeeded</t>
-  </si>
-  <si>
-    <t>"{0}"中存在key为浮点数"{1}",将被强制转换为整形"{2}"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{0}"中的userdata有key为空的情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{1}" 中有重复key"{0}"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>scn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,17 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,28 +542,187 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,26 +755,17 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -563,6 +781,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -572,77 +814,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输入" xfId="1" builtinId="20"/>
-    <cellStyle name="注释" xfId="2" builtinId="10"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -653,9 +1147,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -668,9 +1160,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,7 +1208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,7 +1243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,380 +1446,388 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:1">
       <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="16"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>